--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rtn4-Tnfrsf19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,51 +543,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>45.4506055</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H2">
-        <v>90.901211</v>
+        <v>156.508706</v>
       </c>
       <c r="I2">
-        <v>0.1092442560256595</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J2">
-        <v>0.08146511437786728</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>1.5044725</v>
+        <v>0.054073</v>
       </c>
       <c r="N2">
-        <v>3.008945</v>
+        <v>0.108146</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.04339331850589854</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.04339331850589854</v>
       </c>
       <c r="Q2">
-        <v>68.37918608309874</v>
+        <v>4.231447629769001</v>
       </c>
       <c r="R2">
-        <v>273.516744332395</v>
+        <v>16.925790519076</v>
       </c>
       <c r="S2">
-        <v>0.1092442560256595</v>
+        <v>0.007811215868162452</v>
       </c>
       <c r="T2">
-        <v>0.08146511437786728</v>
+        <v>0.005845091356574509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -599,22 +599,22 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>80.25908033333333</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H3">
-        <v>240.777241</v>
+        <v>156.508706</v>
       </c>
       <c r="I3">
-        <v>0.1929092786303725</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J3">
-        <v>0.2157831041178573</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,33 +623,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.5044725</v>
+        <v>1.1920405</v>
       </c>
       <c r="N3">
-        <v>3.008945</v>
+        <v>2.384081</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9566066814941014</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9566066814941014</v>
       </c>
       <c r="Q3">
-        <v>120.7475792367908</v>
+        <v>93.28235807729652</v>
       </c>
       <c r="R3">
-        <v>724.4854754207449</v>
+        <v>373.1294323091861</v>
       </c>
       <c r="S3">
-        <v>0.1929092786303725</v>
+        <v>0.1721984293287279</v>
       </c>
       <c r="T3">
-        <v>0.2157831041178573</v>
+        <v>0.1288551702926924</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.109515</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H4">
-        <v>246.328545</v>
+        <v>240.777241</v>
       </c>
       <c r="I4">
-        <v>0.1973569500367323</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J4">
-        <v>0.2207581491181523</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>1.5044725</v>
+        <v>0.054073</v>
       </c>
       <c r="N4">
-        <v>3.008945</v>
+        <v>0.108146</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.04339331850589854</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.04339331850589854</v>
       </c>
       <c r="Q4">
-        <v>123.5315073058375</v>
+        <v>4.339849250864334</v>
       </c>
       <c r="R4">
-        <v>741.189043835025</v>
+        <v>26.039095505186</v>
       </c>
       <c r="S4">
-        <v>0.1973569500367323</v>
+        <v>0.0080113243267612</v>
       </c>
       <c r="T4">
-        <v>0.2207581491181523</v>
+        <v>0.00899224718035147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>86.856657</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H5">
-        <v>173.713314</v>
+        <v>240.777241</v>
       </c>
       <c r="I5">
-        <v>0.2087670949695245</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J5">
-        <v>0.1556808191913788</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5044725</v>
+        <v>1.1920405</v>
       </c>
       <c r="N5">
-        <v>3.008945</v>
+        <v>2.384081</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9566066814941014</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9566066814941014</v>
       </c>
       <c r="Q5">
-        <v>130.6734518984325</v>
+        <v>95.67207425008684</v>
       </c>
       <c r="R5">
-        <v>522.69380759373</v>
+        <v>574.032445500521</v>
       </c>
       <c r="S5">
-        <v>0.2087670949695245</v>
+        <v>0.1766098247948992</v>
       </c>
       <c r="T5">
-        <v>0.1556808191913788</v>
+        <v>0.1982342911432648</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>43.48344933333334</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H6">
-        <v>130.450348</v>
+        <v>221.777512</v>
       </c>
       <c r="I6">
-        <v>0.1045160349260795</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J6">
-        <v>0.1169088112638301</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>1.5044725</v>
+        <v>0.054073</v>
       </c>
       <c r="N6">
-        <v>3.008945</v>
+        <v>0.108146</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.04339331850589854</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.04339331850589854</v>
       </c>
       <c r="Q6">
-        <v>65.41965372714334</v>
+        <v>3.997391802125334</v>
       </c>
       <c r="R6">
-        <v>392.51792236286</v>
+        <v>23.984350812752</v>
       </c>
       <c r="S6">
-        <v>0.1045160349260795</v>
+        <v>0.007379150826859812</v>
       </c>
       <c r="T6">
-        <v>0.1169088112638301</v>
+        <v>0.008282669070650927</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>77.88641600000001</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H7">
-        <v>233.659248</v>
+        <v>221.777512</v>
       </c>
       <c r="I7">
-        <v>0.1872063854116316</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J7">
-        <v>0.2094040019309144</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,400 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.5044725</v>
+        <v>1.1920405</v>
       </c>
       <c r="N7">
-        <v>3.008945</v>
+        <v>2.384081</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.9566066814941014</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.9566066814941014</v>
       </c>
       <c r="Q7">
-        <v>117.17797099556</v>
+        <v>88.12259209774534</v>
       </c>
       <c r="R7">
-        <v>703.0678259733601</v>
+        <v>528.7355525864721</v>
       </c>
       <c r="S7">
-        <v>0.1872063854116316</v>
+        <v>0.162673545784872</v>
       </c>
       <c r="T7">
-        <v>0.2094040019309144</v>
+        <v>0.1825916257709627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>64.0114765</v>
+      </c>
+      <c r="H8">
+        <v>128.022953</v>
+      </c>
+      <c r="I8">
+        <v>0.1472465458029419</v>
+      </c>
+      <c r="J8">
+        <v>0.1101838083448968</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.5</v>
+      </c>
+      <c r="M8">
+        <v>0.054073</v>
+      </c>
+      <c r="N8">
+        <v>0.108146</v>
+      </c>
+      <c r="O8">
+        <v>0.04339331850589854</v>
+      </c>
+      <c r="P8">
+        <v>0.04339331850589854</v>
+      </c>
+      <c r="Q8">
+        <v>3.4612925687845</v>
+      </c>
+      <c r="R8">
+        <v>13.845170275138</v>
+      </c>
+      <c r="S8">
+        <v>0.006389516260920436</v>
+      </c>
+      <c r="T8">
+        <v>0.004781241089702988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>64.0114765</v>
+      </c>
+      <c r="H9">
+        <v>128.022953</v>
+      </c>
+      <c r="I9">
+        <v>0.1472465458029419</v>
+      </c>
+      <c r="J9">
+        <v>0.1101838083448968</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.1920405</v>
+      </c>
+      <c r="N9">
+        <v>2.384081</v>
+      </c>
+      <c r="O9">
+        <v>0.9566066814941014</v>
+      </c>
+      <c r="P9">
+        <v>0.9566066814941014</v>
+      </c>
+      <c r="Q9">
+        <v>76.30427245279826</v>
+      </c>
+      <c r="R9">
+        <v>305.217089811193</v>
+      </c>
+      <c r="S9">
+        <v>0.1408570295420215</v>
+      </c>
+      <c r="T9">
+        <v>0.1054025672551938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>56.48610166666666</v>
+      </c>
+      <c r="H10">
+        <v>169.458305</v>
+      </c>
+      <c r="I10">
+        <v>0.1299358148111217</v>
+      </c>
+      <c r="J10">
+        <v>0.1458454203955994</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.054073</v>
+      </c>
+      <c r="N10">
+        <v>0.108146</v>
+      </c>
+      <c r="O10">
+        <v>0.04339331850589854</v>
+      </c>
+      <c r="P10">
+        <v>0.04339331850589854</v>
+      </c>
+      <c r="Q10">
+        <v>3.054372975421666</v>
+      </c>
+      <c r="R10">
+        <v>18.32623785253</v>
+      </c>
+      <c r="S10">
+        <v>0.005638346197422451</v>
+      </c>
+      <c r="T10">
+        <v>0.006328716779852915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>56.48610166666666</v>
+      </c>
+      <c r="H11">
+        <v>169.458305</v>
+      </c>
+      <c r="I11">
+        <v>0.1299358148111217</v>
+      </c>
+      <c r="J11">
+        <v>0.1458454203955994</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.1920405</v>
+      </c>
+      <c r="N11">
+        <v>2.384081</v>
+      </c>
+      <c r="O11">
+        <v>0.9566066814941014</v>
+      </c>
+      <c r="P11">
+        <v>0.9566066814941014</v>
+      </c>
+      <c r="Q11">
+        <v>67.33372087378416</v>
+      </c>
+      <c r="R11">
+        <v>404.002325242705</v>
+      </c>
+      <c r="S11">
+        <v>0.1242974686136992</v>
+      </c>
+      <c r="T11">
+        <v>0.1395167036157465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>81.78626233333334</v>
+      </c>
+      <c r="H12">
+        <v>245.358787</v>
+      </c>
+      <c r="I12">
+        <v>0.1881341484556537</v>
+      </c>
+      <c r="J12">
+        <v>0.2111696764450071</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.5</v>
+      </c>
+      <c r="M12">
+        <v>0.054073</v>
+      </c>
+      <c r="N12">
+        <v>0.108146</v>
+      </c>
+      <c r="O12">
+        <v>0.04339331850589854</v>
+      </c>
+      <c r="P12">
+        <v>0.04339331850589854</v>
+      </c>
+      <c r="Q12">
+        <v>4.422428563150334</v>
+      </c>
+      <c r="R12">
+        <v>26.534571378902</v>
+      </c>
+      <c r="S12">
+        <v>0.008163765025772183</v>
+      </c>
+      <c r="T12">
+        <v>0.009163353028765734</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>81.78626233333334</v>
+      </c>
+      <c r="H13">
+        <v>245.358787</v>
+      </c>
+      <c r="I13">
+        <v>0.1881341484556537</v>
+      </c>
+      <c r="J13">
+        <v>0.2111696764450071</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.1920405</v>
+      </c>
+      <c r="N13">
+        <v>2.384081</v>
+      </c>
+      <c r="O13">
+        <v>0.9566066814941014</v>
+      </c>
+      <c r="P13">
+        <v>0.9566066814941014</v>
+      </c>
+      <c r="Q13">
+        <v>97.49253704495784</v>
+      </c>
+      <c r="R13">
+        <v>584.9552222697471</v>
+      </c>
+      <c r="S13">
+        <v>0.1799703834298816</v>
+      </c>
+      <c r="T13">
+        <v>0.2020063234162414</v>
       </c>
     </row>
   </sheetData>
